--- a/myCode/tasks_run/Custom_runs/Revise_settings_template.xlsx
+++ b/myCode/tasks_run/Custom_runs/Revise_settings_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LUF-Modelling\LUTO2_XH\LUTO2\myCode\tasks_run\Custom_runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008B28E9-B4AB-4D0E-8B9E-850B42752E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085C0817-3CF0-44BD-804E-DB52F4E77506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="159">
   <si>
     <t>Name</t>
   </si>
@@ -479,17 +479,47 @@
     <t>JOB_NAME</t>
   </si>
   <si>
-    <t>snapshot</t>
+    <t>0_1</t>
+  </si>
+  <si>
+    <t>0_2</t>
+  </si>
+  <si>
+    <t>0_3</t>
+  </si>
+  <si>
+    <t>0_4</t>
+  </si>
+  <si>
+    <t>0_5</t>
+  </si>
+  <si>
+    <t>0_6</t>
+  </si>
+  <si>
+    <t>0_7</t>
+  </si>
+  <si>
+    <t>0_8</t>
+  </si>
+  <si>
+    <t>0_9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -799,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,21 +840,39 @@
     <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -837,8 +885,26 @@
       <c r="D2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -851,8 +917,26 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -865,8 +949,26 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -879,92 +981,219 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C6">
-        <v>1E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D6">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="G8">
+        <v>60</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
+      </c>
+      <c r="I8">
+        <v>60</v>
+      </c>
+      <c r="J8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C10" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -973,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58285456-253E-47C8-9E49-705DAED9BA09}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/myCode/tasks_run/Custom_runs/Revise_settings_template.xlsx
+++ b/myCode/tasks_run/Custom_runs/Revise_settings_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LUF-Modelling\LUTO2_XH\LUTO2\myCode\tasks_run\Custom_runs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xinhao\Work\LUTO2\myCode\tasks_run\Custom_runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085C0817-3CF0-44BD-804E-DB52F4E77506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1676ADE9-57CA-4C0F-B8F8-150495609B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="152">
   <si>
     <t>Name</t>
   </si>
@@ -479,31 +479,10 @@
     <t>JOB_NAME</t>
   </si>
   <si>
-    <t>0_1</t>
-  </si>
-  <si>
-    <t>0_2</t>
-  </si>
-  <si>
-    <t>0_3</t>
-  </si>
-  <si>
-    <t>0_4</t>
-  </si>
-  <si>
-    <t>0_5</t>
-  </si>
-  <si>
-    <t>0_6</t>
-  </si>
-  <si>
-    <t>0_7</t>
-  </si>
-  <si>
-    <t>0_8</t>
-  </si>
-  <si>
-    <t>0_9</t>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -829,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,355 +819,171 @@
     <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>150</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>151</v>
       </c>
-      <c r="D1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1E-3</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="C10">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>60</v>
-      </c>
-      <c r="C8">
-        <v>60</v>
-      </c>
-      <c r="D8">
-        <v>60</v>
-      </c>
-      <c r="E8">
-        <v>60</v>
-      </c>
-      <c r="F8">
-        <v>60</v>
-      </c>
-      <c r="G8">
-        <v>60</v>
-      </c>
-      <c r="H8">
-        <v>60</v>
-      </c>
-      <c r="I8">
-        <v>60</v>
-      </c>
-      <c r="J8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E10" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="D12" t="s">
         <v>51</v>
       </c>
     </row>

--- a/myCode/tasks_run/Custom_runs/Revise_settings_template.xlsx
+++ b/myCode/tasks_run/Custom_runs/Revise_settings_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xinhao\Work\LUTO2\myCode\tasks_run\Custom_runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56EEFE4-2BD3-49A4-B5FD-47B3C7F93B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D058ADC6-78B4-44EA-8749-C7846A8D595B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5565" yWindow="1305" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="using" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="174">
   <si>
     <t>Name</t>
   </si>
@@ -482,16 +482,73 @@
     <t>Name1</t>
   </si>
   <si>
-    <t>SOLVE_WEIGHT_DEVITATIONS</t>
-  </si>
-  <si>
     <t>NOBJECTIVE</t>
   </si>
   <si>
-    <t>m0</t>
-  </si>
-  <si>
-    <t>m1</t>
+    <t>SOLVE_WEIGHT_DEVIATIONS</t>
+  </si>
+  <si>
+    <t>w80</t>
+  </si>
+  <si>
+    <t>w81</t>
+  </si>
+  <si>
+    <t>w82</t>
+  </si>
+  <si>
+    <t>w83</t>
+  </si>
+  <si>
+    <t>w84</t>
+  </si>
+  <si>
+    <t>w85</t>
+  </si>
+  <si>
+    <t>w86</t>
+  </si>
+  <si>
+    <t>w87</t>
+  </si>
+  <si>
+    <t>w88</t>
+  </si>
+  <si>
+    <t>w89</t>
+  </si>
+  <si>
+    <t>w90</t>
+  </si>
+  <si>
+    <t>w91</t>
+  </si>
+  <si>
+    <t>w92</t>
+  </si>
+  <si>
+    <t>w93</t>
+  </si>
+  <si>
+    <t>w94</t>
+  </si>
+  <si>
+    <t>w95</t>
+  </si>
+  <si>
+    <t>w96</t>
+  </si>
+  <si>
+    <t>w97</t>
+  </si>
+  <si>
+    <t>w98</t>
+  </si>
+  <si>
+    <t>w99</t>
+  </si>
+  <si>
+    <t>w100</t>
   </si>
 </sst>
 </file>
@@ -817,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:AR14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8:V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,18 +885,138 @@
     <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>1</v>
+      </c>
+      <c r="Y1">
+        <v>1</v>
+      </c>
+      <c r="Z1">
+        <v>1</v>
+      </c>
+      <c r="AA1">
+        <v>1</v>
+      </c>
+      <c r="AB1">
+        <v>1</v>
+      </c>
+      <c r="AC1">
+        <v>1</v>
+      </c>
+      <c r="AD1">
+        <v>1</v>
+      </c>
+      <c r="AE1">
+        <v>1</v>
+      </c>
+      <c r="AF1">
+        <v>1</v>
+      </c>
+      <c r="AG1">
+        <v>1</v>
+      </c>
+      <c r="AH1">
+        <v>1</v>
+      </c>
+      <c r="AI1">
+        <v>1</v>
+      </c>
+      <c r="AJ1">
+        <v>1</v>
+      </c>
+      <c r="AK1">
+        <v>1</v>
+      </c>
+      <c r="AL1">
+        <v>1</v>
+      </c>
+      <c r="AM1">
+        <v>1</v>
+      </c>
+      <c r="AN1">
+        <v>1</v>
+      </c>
+      <c r="AO1">
+        <v>1</v>
+      </c>
+      <c r="AP1">
+        <v>1</v>
+      </c>
+      <c r="AQ1">
+        <v>1</v>
+      </c>
+      <c r="AR1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -849,8 +1026,128 @@
       <c r="C2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U2" t="s">
+        <v>172</v>
+      </c>
+      <c r="V2" t="s">
+        <v>173</v>
+      </c>
+      <c r="X2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -860,8 +1157,128 @@
       <c r="C3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>30</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="L3">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>30</v>
+      </c>
+      <c r="N3">
+        <v>30</v>
+      </c>
+      <c r="O3">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>30</v>
+      </c>
+      <c r="Q3">
+        <v>30</v>
+      </c>
+      <c r="R3">
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <v>30</v>
+      </c>
+      <c r="T3">
+        <v>30</v>
+      </c>
+      <c r="U3">
+        <v>30</v>
+      </c>
+      <c r="V3">
+        <v>30</v>
+      </c>
+      <c r="X3">
+        <v>30</v>
+      </c>
+      <c r="Y3">
+        <v>30</v>
+      </c>
+      <c r="Z3">
+        <v>30</v>
+      </c>
+      <c r="AA3">
+        <v>30</v>
+      </c>
+      <c r="AB3">
+        <v>30</v>
+      </c>
+      <c r="AC3">
+        <v>30</v>
+      </c>
+      <c r="AD3">
+        <v>30</v>
+      </c>
+      <c r="AE3">
+        <v>30</v>
+      </c>
+      <c r="AF3">
+        <v>30</v>
+      </c>
+      <c r="AG3">
+        <v>30</v>
+      </c>
+      <c r="AH3">
+        <v>30</v>
+      </c>
+      <c r="AI3">
+        <v>30</v>
+      </c>
+      <c r="AJ3">
+        <v>30</v>
+      </c>
+      <c r="AK3">
+        <v>30</v>
+      </c>
+      <c r="AL3">
+        <v>30</v>
+      </c>
+      <c r="AM3">
+        <v>30</v>
+      </c>
+      <c r="AN3">
+        <v>30</v>
+      </c>
+      <c r="AO3">
+        <v>30</v>
+      </c>
+      <c r="AP3">
+        <v>30</v>
+      </c>
+      <c r="AQ3">
+        <v>30</v>
+      </c>
+      <c r="AR3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -871,8 +1288,128 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -882,8 +1419,128 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -893,30 +1550,390 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7">
+        <v>0.81</v>
+      </c>
+      <c r="D7">
+        <v>0.82</v>
+      </c>
+      <c r="E7">
+        <v>0.83</v>
+      </c>
+      <c r="F7">
+        <v>0.84</v>
+      </c>
+      <c r="G7">
+        <v>0.85</v>
+      </c>
+      <c r="H7">
+        <v>0.86</v>
+      </c>
+      <c r="I7">
+        <v>0.87</v>
+      </c>
+      <c r="J7">
+        <v>0.88</v>
+      </c>
+      <c r="K7">
+        <v>0.89</v>
+      </c>
+      <c r="L7">
+        <v>0.9</v>
+      </c>
+      <c r="M7">
+        <v>0.91</v>
+      </c>
+      <c r="N7">
+        <v>0.92</v>
+      </c>
+      <c r="O7">
+        <v>0.93</v>
+      </c>
+      <c r="P7">
+        <v>0.94</v>
+      </c>
+      <c r="Q7">
+        <v>0.95</v>
+      </c>
+      <c r="R7">
+        <v>0.96</v>
+      </c>
+      <c r="S7">
+        <v>0.97</v>
+      </c>
+      <c r="T7">
+        <v>0.98</v>
+      </c>
+      <c r="U7">
+        <v>0.99</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>0.8</v>
+      </c>
+      <c r="Y7">
+        <v>0.81</v>
+      </c>
+      <c r="Z7">
+        <v>0.82</v>
+      </c>
+      <c r="AA7">
+        <v>0.83</v>
+      </c>
+      <c r="AB7">
+        <v>0.84</v>
+      </c>
+      <c r="AC7">
+        <v>0.85</v>
+      </c>
+      <c r="AD7">
+        <v>0.86</v>
+      </c>
+      <c r="AE7">
+        <v>0.87</v>
+      </c>
+      <c r="AF7">
+        <v>0.88</v>
+      </c>
+      <c r="AG7">
+        <v>0.89</v>
+      </c>
+      <c r="AH7">
+        <v>0.9</v>
+      </c>
+      <c r="AI7">
+        <v>0.91</v>
+      </c>
+      <c r="AJ7">
+        <v>0.92</v>
+      </c>
+      <c r="AK7">
+        <v>0.93</v>
+      </c>
+      <c r="AL7">
+        <v>0.94</v>
+      </c>
+      <c r="AM7">
+        <v>0.95</v>
+      </c>
+      <c r="AN7">
+        <v>0.96</v>
+      </c>
+      <c r="AO7">
+        <v>0.97</v>
+      </c>
+      <c r="AP7">
+        <v>0.98</v>
+      </c>
+      <c r="AQ7">
+        <v>0.99</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>151</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>152</v>
-      </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -926,102 +1943,780 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U9" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10">
-        <v>-1</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" t="s">
+        <v>147</v>
+      </c>
+      <c r="M10" t="s">
+        <v>147</v>
+      </c>
+      <c r="N10" t="s">
+        <v>147</v>
+      </c>
+      <c r="O10" t="s">
+        <v>147</v>
+      </c>
+      <c r="P10" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>147</v>
+      </c>
+      <c r="R10" t="s">
+        <v>147</v>
+      </c>
+      <c r="S10" t="s">
+        <v>147</v>
+      </c>
+      <c r="T10" t="s">
+        <v>147</v>
+      </c>
+      <c r="U10" t="s">
+        <v>147</v>
+      </c>
+      <c r="V10" t="s">
+        <v>147</v>
+      </c>
+      <c r="X10" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D11">
+        <v>70</v>
+      </c>
+      <c r="E11">
+        <v>70</v>
+      </c>
+      <c r="F11">
+        <v>70</v>
+      </c>
+      <c r="G11">
+        <v>70</v>
+      </c>
+      <c r="H11">
+        <v>70</v>
+      </c>
+      <c r="I11">
+        <v>70</v>
+      </c>
+      <c r="J11">
+        <v>70</v>
+      </c>
+      <c r="K11">
+        <v>70</v>
+      </c>
+      <c r="L11">
+        <v>70</v>
+      </c>
+      <c r="M11">
+        <v>70</v>
+      </c>
+      <c r="N11">
+        <v>70</v>
+      </c>
+      <c r="O11">
+        <v>70</v>
+      </c>
+      <c r="P11">
+        <v>70</v>
+      </c>
+      <c r="Q11">
+        <v>70</v>
+      </c>
+      <c r="R11">
+        <v>70</v>
+      </c>
+      <c r="S11">
+        <v>70</v>
+      </c>
+      <c r="T11">
+        <v>70</v>
+      </c>
+      <c r="U11">
+        <v>70</v>
+      </c>
+      <c r="V11">
+        <v>70</v>
+      </c>
+      <c r="X11">
+        <v>70</v>
+      </c>
+      <c r="Y11">
+        <v>70</v>
+      </c>
+      <c r="Z11">
+        <v>70</v>
+      </c>
+      <c r="AA11">
+        <v>70</v>
+      </c>
+      <c r="AB11">
+        <v>70</v>
+      </c>
+      <c r="AC11">
+        <v>70</v>
+      </c>
+      <c r="AD11">
+        <v>70</v>
+      </c>
+      <c r="AE11">
+        <v>70</v>
+      </c>
+      <c r="AF11">
+        <v>70</v>
+      </c>
+      <c r="AG11">
+        <v>70</v>
+      </c>
+      <c r="AH11">
+        <v>70</v>
+      </c>
+      <c r="AI11">
+        <v>70</v>
+      </c>
+      <c r="AJ11">
+        <v>70</v>
+      </c>
+      <c r="AK11">
+        <v>70</v>
+      </c>
+      <c r="AL11">
+        <v>70</v>
+      </c>
+      <c r="AM11">
+        <v>70</v>
+      </c>
+      <c r="AN11">
+        <v>70</v>
+      </c>
+      <c r="AO11">
+        <v>70</v>
+      </c>
+      <c r="AP11">
+        <v>70</v>
+      </c>
+      <c r="AQ11">
+        <v>70</v>
+      </c>
+      <c r="AR11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>10</v>
+      </c>
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>10</v>
+      </c>
+      <c r="Y12">
+        <v>10</v>
+      </c>
+      <c r="Z12">
+        <v>10</v>
+      </c>
+      <c r="AA12">
+        <v>10</v>
+      </c>
+      <c r="AB12">
+        <v>10</v>
+      </c>
+      <c r="AC12">
+        <v>10</v>
+      </c>
+      <c r="AD12">
+        <v>10</v>
+      </c>
+      <c r="AE12">
+        <v>10</v>
+      </c>
+      <c r="AF12">
+        <v>10</v>
+      </c>
+      <c r="AG12">
+        <v>10</v>
+      </c>
+      <c r="AH12">
+        <v>10</v>
+      </c>
+      <c r="AI12">
+        <v>10</v>
+      </c>
+      <c r="AJ12">
+        <v>10</v>
+      </c>
+      <c r="AK12">
+        <v>10</v>
+      </c>
+      <c r="AL12">
+        <v>10</v>
+      </c>
+      <c r="AM12">
+        <v>10</v>
+      </c>
+      <c r="AN12">
+        <v>10</v>
+      </c>
+      <c r="AO12">
+        <v>10</v>
+      </c>
+      <c r="AP12">
+        <v>10</v>
+      </c>
+      <c r="AQ12">
+        <v>10</v>
+      </c>
+      <c r="AR12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>70</v>
-      </c>
-      <c r="C13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N13" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="P13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="R13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="S13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="T13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="U13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="V13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
         <v>149</v>
       </c>
-      <c r="B16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="s">
+        <v>148</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" t="s">
+        <v>148</v>
+      </c>
+      <c r="P14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>148</v>
+      </c>
+      <c r="R14" t="s">
+        <v>148</v>
+      </c>
+      <c r="S14" t="s">
+        <v>148</v>
+      </c>
+      <c r="T14" t="s">
+        <v>148</v>
+      </c>
+      <c r="U14" t="s">
+        <v>148</v>
+      </c>
+      <c r="V14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR14" t="s">
         <v>148</v>
       </c>
     </row>

--- a/myCode/tasks_run/Custom_runs/Revise_settings_template.xlsx
+++ b/myCode/tasks_run/Custom_runs/Revise_settings_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xinhao\Work\LUTO2\myCode\tasks_run\Custom_runs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LUF-Modelling\LUTO2_XH\LUTO2\myCode\tasks_run\Custom_runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D058ADC6-78B4-44EA-8749-C7846A8D595B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E388F8-55B0-4398-8622-87E75513E127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="1305" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="using" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="153">
   <si>
     <t>Name</t>
   </si>
@@ -486,69 +486,6 @@
   </si>
   <si>
     <t>SOLVE_WEIGHT_DEVIATIONS</t>
-  </si>
-  <si>
-    <t>w80</t>
-  </si>
-  <si>
-    <t>w81</t>
-  </si>
-  <si>
-    <t>w82</t>
-  </si>
-  <si>
-    <t>w83</t>
-  </si>
-  <si>
-    <t>w84</t>
-  </si>
-  <si>
-    <t>w85</t>
-  </si>
-  <si>
-    <t>w86</t>
-  </si>
-  <si>
-    <t>w87</t>
-  </si>
-  <si>
-    <t>w88</t>
-  </si>
-  <si>
-    <t>w89</t>
-  </si>
-  <si>
-    <t>w90</t>
-  </si>
-  <si>
-    <t>w91</t>
-  </si>
-  <si>
-    <t>w92</t>
-  </si>
-  <si>
-    <t>w93</t>
-  </si>
-  <si>
-    <t>w94</t>
-  </si>
-  <si>
-    <t>w95</t>
-  </si>
-  <si>
-    <t>w96</t>
-  </si>
-  <si>
-    <t>w97</t>
-  </si>
-  <si>
-    <t>w98</t>
-  </si>
-  <si>
-    <t>w99</t>
-  </si>
-  <si>
-    <t>w100</t>
   </si>
 </sst>
 </file>
@@ -874,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8:V8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +822,7 @@
     <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -917,368 +854,152 @@
         <v>0</v>
       </c>
       <c r="K1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S1">
-        <v>0</v>
-      </c>
-      <c r="T1">
-        <v>0</v>
-      </c>
-      <c r="U1">
-        <v>0</v>
-      </c>
-      <c r="V1">
-        <v>0</v>
-      </c>
-      <c r="X1">
-        <v>1</v>
-      </c>
-      <c r="Y1">
-        <v>1</v>
-      </c>
-      <c r="Z1">
-        <v>1</v>
-      </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>1</v>
-      </c>
-      <c r="AC1">
-        <v>1</v>
-      </c>
-      <c r="AD1">
-        <v>1</v>
-      </c>
-      <c r="AE1">
-        <v>1</v>
-      </c>
-      <c r="AF1">
-        <v>1</v>
-      </c>
-      <c r="AG1">
-        <v>1</v>
-      </c>
-      <c r="AH1">
-        <v>1</v>
-      </c>
-      <c r="AI1">
-        <v>1</v>
-      </c>
-      <c r="AJ1">
-        <v>1</v>
-      </c>
-      <c r="AK1">
-        <v>1</v>
-      </c>
-      <c r="AL1">
-        <v>1</v>
-      </c>
-      <c r="AM1">
-        <v>1</v>
-      </c>
-      <c r="AN1">
-        <v>1</v>
-      </c>
-      <c r="AO1">
-        <v>1</v>
-      </c>
-      <c r="AP1">
-        <v>1</v>
-      </c>
-      <c r="AQ1">
-        <v>1</v>
-      </c>
-      <c r="AR1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>150</v>
       </c>
-      <c r="B2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L2" t="s">
-        <v>163</v>
-      </c>
-      <c r="M2" t="s">
-        <v>164</v>
-      </c>
-      <c r="N2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O2" t="s">
-        <v>166</v>
-      </c>
-      <c r="P2" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>168</v>
-      </c>
-      <c r="R2" t="s">
-        <v>169</v>
-      </c>
-      <c r="S2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T2" t="s">
-        <v>171</v>
-      </c>
-      <c r="U2" t="s">
-        <v>172</v>
-      </c>
-      <c r="V2" t="s">
-        <v>173</v>
-      </c>
-      <c r="X2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>6</v>
+      </c>
+      <c r="Q2">
+        <v>7</v>
+      </c>
+      <c r="R2">
+        <v>8</v>
+      </c>
+      <c r="S2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="R3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S3">
-        <v>30</v>
-      </c>
-      <c r="T3">
-        <v>30</v>
-      </c>
-      <c r="U3">
-        <v>30</v>
-      </c>
-      <c r="V3">
-        <v>30</v>
-      </c>
-      <c r="X3">
-        <v>30</v>
-      </c>
-      <c r="Y3">
-        <v>30</v>
-      </c>
-      <c r="Z3">
-        <v>30</v>
-      </c>
-      <c r="AA3">
-        <v>30</v>
-      </c>
-      <c r="AB3">
-        <v>30</v>
-      </c>
-      <c r="AC3">
-        <v>30</v>
-      </c>
-      <c r="AD3">
-        <v>30</v>
-      </c>
-      <c r="AE3">
-        <v>30</v>
-      </c>
-      <c r="AF3">
-        <v>30</v>
-      </c>
-      <c r="AG3">
-        <v>30</v>
-      </c>
-      <c r="AH3">
-        <v>30</v>
-      </c>
-      <c r="AI3">
-        <v>30</v>
-      </c>
-      <c r="AJ3">
-        <v>30</v>
-      </c>
-      <c r="AK3">
-        <v>30</v>
-      </c>
-      <c r="AL3">
-        <v>30</v>
-      </c>
-      <c r="AM3">
-        <v>30</v>
-      </c>
-      <c r="AN3">
-        <v>30</v>
-      </c>
-      <c r="AO3">
-        <v>30</v>
-      </c>
-      <c r="AP3">
-        <v>30</v>
-      </c>
-      <c r="AQ3">
-        <v>30</v>
-      </c>
-      <c r="AR3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1292,22 +1013,22 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
@@ -1319,97 +1040,25 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V4" t="s">
-        <v>2</v>
-      </c>
-      <c r="X4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1423,22 +1072,22 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
@@ -1450,97 +1099,25 @@
         <v>11</v>
       </c>
       <c r="N5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S5" t="s">
-        <v>11</v>
-      </c>
-      <c r="T5" t="s">
-        <v>11</v>
-      </c>
-      <c r="U5" t="s">
-        <v>11</v>
-      </c>
-      <c r="V5" t="s">
-        <v>11</v>
-      </c>
-      <c r="X5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1598,211 +1175,67 @@
       <c r="S6" t="s">
         <v>5</v>
       </c>
-      <c r="T6" t="s">
-        <v>5</v>
-      </c>
-      <c r="U6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6" t="s">
-        <v>5</v>
-      </c>
-      <c r="X6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>152</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="C7">
-        <v>0.81</v>
+        <v>0.84</v>
       </c>
       <c r="D7">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="E7">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F7">
         <v>0.84</v>
       </c>
       <c r="G7">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="H7">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="I7">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="J7">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="K7">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="L7">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="M7">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="N7">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="O7">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="P7">
-        <v>0.94</v>
+        <v>0.84</v>
       </c>
       <c r="Q7">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="R7">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="S7">
-        <v>0.97</v>
-      </c>
-      <c r="T7">
-        <v>0.98</v>
-      </c>
-      <c r="U7">
-        <v>0.99</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>0.8</v>
-      </c>
-      <c r="Y7">
-        <v>0.81</v>
-      </c>
-      <c r="Z7">
-        <v>0.82</v>
-      </c>
-      <c r="AA7">
-        <v>0.83</v>
-      </c>
-      <c r="AB7">
         <v>0.84</v>
       </c>
-      <c r="AC7">
-        <v>0.85</v>
-      </c>
-      <c r="AD7">
-        <v>0.86</v>
-      </c>
-      <c r="AE7">
-        <v>0.87</v>
-      </c>
-      <c r="AF7">
-        <v>0.88</v>
-      </c>
-      <c r="AG7">
-        <v>0.89</v>
-      </c>
-      <c r="AH7">
-        <v>0.9</v>
-      </c>
-      <c r="AI7">
-        <v>0.91</v>
-      </c>
-      <c r="AJ7">
-        <v>0.92</v>
-      </c>
-      <c r="AK7">
-        <v>0.93</v>
-      </c>
-      <c r="AL7">
-        <v>0.94</v>
-      </c>
-      <c r="AM7">
-        <v>0.95</v>
-      </c>
-      <c r="AN7">
-        <v>0.96</v>
-      </c>
-      <c r="AO7">
-        <v>0.97</v>
-      </c>
-      <c r="AP7">
-        <v>0.98</v>
-      </c>
-      <c r="AQ7">
-        <v>0.99</v>
-      </c>
-      <c r="AR7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -1834,106 +1267,34 @@
         <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1941,130 +1302,58 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
         <v>9</v>
       </c>
       <c r="L9" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N9" t="s">
         <v>9</v>
       </c>
       <c r="O9" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="P9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Q9" t="s">
         <v>9</v>
       </c>
       <c r="R9" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="S9" t="s">
-        <v>9</v>
-      </c>
-      <c r="T9" t="s">
-        <v>9</v>
-      </c>
-      <c r="U9" t="s">
-        <v>9</v>
-      </c>
-      <c r="V9" t="s">
-        <v>9</v>
-      </c>
-      <c r="X9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -2122,80 +1411,8 @@
       <c r="S10" t="s">
         <v>147</v>
       </c>
-      <c r="T10" t="s">
-        <v>147</v>
-      </c>
-      <c r="U10" t="s">
-        <v>147</v>
-      </c>
-      <c r="V10" t="s">
-        <v>147</v>
-      </c>
-      <c r="X10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2253,80 +1470,8 @@
       <c r="S11">
         <v>70</v>
       </c>
-      <c r="T11">
-        <v>70</v>
-      </c>
-      <c r="U11">
-        <v>70</v>
-      </c>
-      <c r="V11">
-        <v>70</v>
-      </c>
-      <c r="X11">
-        <v>70</v>
-      </c>
-      <c r="Y11">
-        <v>70</v>
-      </c>
-      <c r="Z11">
-        <v>70</v>
-      </c>
-      <c r="AA11">
-        <v>70</v>
-      </c>
-      <c r="AB11">
-        <v>70</v>
-      </c>
-      <c r="AC11">
-        <v>70</v>
-      </c>
-      <c r="AD11">
-        <v>70</v>
-      </c>
-      <c r="AE11">
-        <v>70</v>
-      </c>
-      <c r="AF11">
-        <v>70</v>
-      </c>
-      <c r="AG11">
-        <v>70</v>
-      </c>
-      <c r="AH11">
-        <v>70</v>
-      </c>
-      <c r="AI11">
-        <v>70</v>
-      </c>
-      <c r="AJ11">
-        <v>70</v>
-      </c>
-      <c r="AK11">
-        <v>70</v>
-      </c>
-      <c r="AL11">
-        <v>70</v>
-      </c>
-      <c r="AM11">
-        <v>70</v>
-      </c>
-      <c r="AN11">
-        <v>70</v>
-      </c>
-      <c r="AO11">
-        <v>70</v>
-      </c>
-      <c r="AP11">
-        <v>70</v>
-      </c>
-      <c r="AQ11">
-        <v>70</v>
-      </c>
-      <c r="AR11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2384,80 +1529,8 @@
       <c r="S12">
         <v>10</v>
       </c>
-      <c r="T12">
-        <v>10</v>
-      </c>
-      <c r="U12">
-        <v>10</v>
-      </c>
-      <c r="V12">
-        <v>10</v>
-      </c>
-      <c r="X12">
-        <v>10</v>
-      </c>
-      <c r="Y12">
-        <v>10</v>
-      </c>
-      <c r="Z12">
-        <v>10</v>
-      </c>
-      <c r="AA12">
-        <v>10</v>
-      </c>
-      <c r="AB12">
-        <v>10</v>
-      </c>
-      <c r="AC12">
-        <v>10</v>
-      </c>
-      <c r="AD12">
-        <v>10</v>
-      </c>
-      <c r="AE12">
-        <v>10</v>
-      </c>
-      <c r="AF12">
-        <v>10</v>
-      </c>
-      <c r="AG12">
-        <v>10</v>
-      </c>
-      <c r="AH12">
-        <v>10</v>
-      </c>
-      <c r="AI12">
-        <v>10</v>
-      </c>
-      <c r="AJ12">
-        <v>10</v>
-      </c>
-      <c r="AK12">
-        <v>10</v>
-      </c>
-      <c r="AL12">
-        <v>10</v>
-      </c>
-      <c r="AM12">
-        <v>10</v>
-      </c>
-      <c r="AN12">
-        <v>10</v>
-      </c>
-      <c r="AO12">
-        <v>10</v>
-      </c>
-      <c r="AP12">
-        <v>10</v>
-      </c>
-      <c r="AQ12">
-        <v>10</v>
-      </c>
-      <c r="AR12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2468,31 +1541,31 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D13" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F13" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G13" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="H13" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I13" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J13" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="K13" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="L13" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M13" s="1">
         <v>8.3333333333333329E-2</v>
@@ -2501,95 +1574,22 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="O13" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="P13" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="Q13" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="R13" s="1">
-        <v>8.3333333333333301E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="S13" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="T13" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="U13" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="V13" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="Y13" s="1">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AJ13" s="1">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="AL13" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="AN13" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="AP13" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="AQ13" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="AR13" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -2645,78 +1645,6 @@
         <v>148</v>
       </c>
       <c r="S14" t="s">
-        <v>148</v>
-      </c>
-      <c r="T14" t="s">
-        <v>148</v>
-      </c>
-      <c r="U14" t="s">
-        <v>148</v>
-      </c>
-      <c r="V14" t="s">
-        <v>148</v>
-      </c>
-      <c r="X14" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR14" t="s">
         <v>148</v>
       </c>
     </row>

--- a/myCode/tasks_run/Custom_runs/Revise_settings_template.xlsx
+++ b/myCode/tasks_run/Custom_runs/Revise_settings_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LUF-Modelling\LUTO2_XH\LUTO2\myCode\tasks_run\Custom_runs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xinhao\Work\LUTO2\myCode\tasks_run\Custom_runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E388F8-55B0-4398-8622-87E75513E127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D058ADC6-78B4-44EA-8749-C7846A8D595B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5565" yWindow="1305" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="using" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="174">
   <si>
     <t>Name</t>
   </si>
@@ -486,6 +486,69 @@
   </si>
   <si>
     <t>SOLVE_WEIGHT_DEVIATIONS</t>
+  </si>
+  <si>
+    <t>w80</t>
+  </si>
+  <si>
+    <t>w81</t>
+  </si>
+  <si>
+    <t>w82</t>
+  </si>
+  <si>
+    <t>w83</t>
+  </si>
+  <si>
+    <t>w84</t>
+  </si>
+  <si>
+    <t>w85</t>
+  </si>
+  <si>
+    <t>w86</t>
+  </si>
+  <si>
+    <t>w87</t>
+  </si>
+  <si>
+    <t>w88</t>
+  </si>
+  <si>
+    <t>w89</t>
+  </si>
+  <si>
+    <t>w90</t>
+  </si>
+  <si>
+    <t>w91</t>
+  </si>
+  <si>
+    <t>w92</t>
+  </si>
+  <si>
+    <t>w93</t>
+  </si>
+  <si>
+    <t>w94</t>
+  </si>
+  <si>
+    <t>w95</t>
+  </si>
+  <si>
+    <t>w96</t>
+  </si>
+  <si>
+    <t>w97</t>
+  </si>
+  <si>
+    <t>w98</t>
+  </si>
+  <si>
+    <t>w99</t>
+  </si>
+  <si>
+    <t>w100</t>
   </si>
 </sst>
 </file>
@@ -811,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:AR14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8:V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +885,7 @@
     <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -854,152 +917,368 @@
         <v>0</v>
       </c>
       <c r="K1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>1</v>
+      </c>
+      <c r="Y1">
+        <v>1</v>
+      </c>
+      <c r="Z1">
+        <v>1</v>
+      </c>
+      <c r="AA1">
+        <v>1</v>
+      </c>
+      <c r="AB1">
+        <v>1</v>
+      </c>
+      <c r="AC1">
+        <v>1</v>
+      </c>
+      <c r="AD1">
+        <v>1</v>
+      </c>
+      <c r="AE1">
+        <v>1</v>
+      </c>
+      <c r="AF1">
+        <v>1</v>
+      </c>
+      <c r="AG1">
+        <v>1</v>
+      </c>
+      <c r="AH1">
+        <v>1</v>
+      </c>
+      <c r="AI1">
+        <v>1</v>
+      </c>
+      <c r="AJ1">
+        <v>1</v>
+      </c>
+      <c r="AK1">
+        <v>1</v>
+      </c>
+      <c r="AL1">
+        <v>1</v>
+      </c>
+      <c r="AM1">
+        <v>1</v>
+      </c>
+      <c r="AN1">
+        <v>1</v>
+      </c>
+      <c r="AO1">
+        <v>1</v>
+      </c>
+      <c r="AP1">
+        <v>1</v>
+      </c>
+      <c r="AQ1">
+        <v>1</v>
+      </c>
+      <c r="AR1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>150</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-      <c r="J2">
-        <v>9</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2">
-        <v>4</v>
-      </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2">
-        <v>6</v>
-      </c>
-      <c r="Q2">
-        <v>7</v>
-      </c>
-      <c r="R2">
-        <v>8</v>
-      </c>
-      <c r="S2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S2" t="s">
+        <v>170</v>
+      </c>
+      <c r="T2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U2" t="s">
+        <v>172</v>
+      </c>
+      <c r="V2" t="s">
+        <v>173</v>
+      </c>
+      <c r="X2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="P3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="R3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="T3">
+        <v>30</v>
+      </c>
+      <c r="U3">
+        <v>30</v>
+      </c>
+      <c r="V3">
+        <v>30</v>
+      </c>
+      <c r="X3">
+        <v>30</v>
+      </c>
+      <c r="Y3">
+        <v>30</v>
+      </c>
+      <c r="Z3">
+        <v>30</v>
+      </c>
+      <c r="AA3">
+        <v>30</v>
+      </c>
+      <c r="AB3">
+        <v>30</v>
+      </c>
+      <c r="AC3">
+        <v>30</v>
+      </c>
+      <c r="AD3">
+        <v>30</v>
+      </c>
+      <c r="AE3">
+        <v>30</v>
+      </c>
+      <c r="AF3">
+        <v>30</v>
+      </c>
+      <c r="AG3">
+        <v>30</v>
+      </c>
+      <c r="AH3">
+        <v>30</v>
+      </c>
+      <c r="AI3">
+        <v>30</v>
+      </c>
+      <c r="AJ3">
+        <v>30</v>
+      </c>
+      <c r="AK3">
+        <v>30</v>
+      </c>
+      <c r="AL3">
+        <v>30</v>
+      </c>
+      <c r="AM3">
+        <v>30</v>
+      </c>
+      <c r="AN3">
+        <v>30</v>
+      </c>
+      <c r="AO3">
+        <v>30</v>
+      </c>
+      <c r="AP3">
+        <v>30</v>
+      </c>
+      <c r="AQ3">
+        <v>30</v>
+      </c>
+      <c r="AR3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1013,22 +1292,22 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
@@ -1040,25 +1319,97 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1072,22 +1423,22 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
@@ -1099,25 +1450,97 @@
         <v>11</v>
       </c>
       <c r="N5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="T5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1175,67 +1598,211 @@
       <c r="S6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>152</v>
       </c>
       <c r="B7">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
-        <v>0.84</v>
+        <v>0.81</v>
       </c>
       <c r="D7">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="E7">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F7">
         <v>0.84</v>
       </c>
       <c r="G7">
+        <v>0.85</v>
+      </c>
+      <c r="H7">
+        <v>0.86</v>
+      </c>
+      <c r="I7">
+        <v>0.87</v>
+      </c>
+      <c r="J7">
+        <v>0.88</v>
+      </c>
+      <c r="K7">
+        <v>0.89</v>
+      </c>
+      <c r="L7">
+        <v>0.9</v>
+      </c>
+      <c r="M7">
+        <v>0.91</v>
+      </c>
+      <c r="N7">
+        <v>0.92</v>
+      </c>
+      <c r="O7">
+        <v>0.93</v>
+      </c>
+      <c r="P7">
+        <v>0.94</v>
+      </c>
+      <c r="Q7">
+        <v>0.95</v>
+      </c>
+      <c r="R7">
+        <v>0.96</v>
+      </c>
+      <c r="S7">
+        <v>0.97</v>
+      </c>
+      <c r="T7">
+        <v>0.98</v>
+      </c>
+      <c r="U7">
+        <v>0.99</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>0.8</v>
+      </c>
+      <c r="Y7">
+        <v>0.81</v>
+      </c>
+      <c r="Z7">
+        <v>0.82</v>
+      </c>
+      <c r="AA7">
+        <v>0.83</v>
+      </c>
+      <c r="AB7">
         <v>0.84</v>
       </c>
-      <c r="H7">
-        <v>0.84</v>
-      </c>
-      <c r="I7">
-        <v>0.84</v>
-      </c>
-      <c r="J7">
-        <v>0.84</v>
-      </c>
-      <c r="K7">
-        <v>0.84</v>
-      </c>
-      <c r="L7">
-        <v>0.84</v>
-      </c>
-      <c r="M7">
-        <v>0.84</v>
-      </c>
-      <c r="N7">
-        <v>0.84</v>
-      </c>
-      <c r="O7">
-        <v>0.84</v>
-      </c>
-      <c r="P7">
-        <v>0.84</v>
-      </c>
-      <c r="Q7">
-        <v>0.84</v>
-      </c>
-      <c r="R7">
-        <v>0.84</v>
-      </c>
-      <c r="S7">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AC7">
+        <v>0.85</v>
+      </c>
+      <c r="AD7">
+        <v>0.86</v>
+      </c>
+      <c r="AE7">
+        <v>0.87</v>
+      </c>
+      <c r="AF7">
+        <v>0.88</v>
+      </c>
+      <c r="AG7">
+        <v>0.89</v>
+      </c>
+      <c r="AH7">
+        <v>0.9</v>
+      </c>
+      <c r="AI7">
+        <v>0.91</v>
+      </c>
+      <c r="AJ7">
+        <v>0.92</v>
+      </c>
+      <c r="AK7">
+        <v>0.93</v>
+      </c>
+      <c r="AL7">
+        <v>0.94</v>
+      </c>
+      <c r="AM7">
+        <v>0.95</v>
+      </c>
+      <c r="AN7">
+        <v>0.96</v>
+      </c>
+      <c r="AO7">
+        <v>0.97</v>
+      </c>
+      <c r="AP7">
+        <v>0.98</v>
+      </c>
+      <c r="AQ7">
+        <v>0.99</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -1267,34 +1834,106 @@
         <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1302,58 +1941,130 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K9" t="s">
         <v>9</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N9" t="s">
         <v>9</v>
       </c>
       <c r="O9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="Q9" t="s">
         <v>9</v>
       </c>
       <c r="R9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="T9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U9" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -1411,8 +2122,80 @@
       <c r="S10" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" t="s">
+        <v>147</v>
+      </c>
+      <c r="U10" t="s">
+        <v>147</v>
+      </c>
+      <c r="V10" t="s">
+        <v>147</v>
+      </c>
+      <c r="X10" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1470,8 +2253,80 @@
       <c r="S11">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>70</v>
+      </c>
+      <c r="U11">
+        <v>70</v>
+      </c>
+      <c r="V11">
+        <v>70</v>
+      </c>
+      <c r="X11">
+        <v>70</v>
+      </c>
+      <c r="Y11">
+        <v>70</v>
+      </c>
+      <c r="Z11">
+        <v>70</v>
+      </c>
+      <c r="AA11">
+        <v>70</v>
+      </c>
+      <c r="AB11">
+        <v>70</v>
+      </c>
+      <c r="AC11">
+        <v>70</v>
+      </c>
+      <c r="AD11">
+        <v>70</v>
+      </c>
+      <c r="AE11">
+        <v>70</v>
+      </c>
+      <c r="AF11">
+        <v>70</v>
+      </c>
+      <c r="AG11">
+        <v>70</v>
+      </c>
+      <c r="AH11">
+        <v>70</v>
+      </c>
+      <c r="AI11">
+        <v>70</v>
+      </c>
+      <c r="AJ11">
+        <v>70</v>
+      </c>
+      <c r="AK11">
+        <v>70</v>
+      </c>
+      <c r="AL11">
+        <v>70</v>
+      </c>
+      <c r="AM11">
+        <v>70</v>
+      </c>
+      <c r="AN11">
+        <v>70</v>
+      </c>
+      <c r="AO11">
+        <v>70</v>
+      </c>
+      <c r="AP11">
+        <v>70</v>
+      </c>
+      <c r="AQ11">
+        <v>70</v>
+      </c>
+      <c r="AR11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1529,8 +2384,80 @@
       <c r="S12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <v>10</v>
+      </c>
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>10</v>
+      </c>
+      <c r="Y12">
+        <v>10</v>
+      </c>
+      <c r="Z12">
+        <v>10</v>
+      </c>
+      <c r="AA12">
+        <v>10</v>
+      </c>
+      <c r="AB12">
+        <v>10</v>
+      </c>
+      <c r="AC12">
+        <v>10</v>
+      </c>
+      <c r="AD12">
+        <v>10</v>
+      </c>
+      <c r="AE12">
+        <v>10</v>
+      </c>
+      <c r="AF12">
+        <v>10</v>
+      </c>
+      <c r="AG12">
+        <v>10</v>
+      </c>
+      <c r="AH12">
+        <v>10</v>
+      </c>
+      <c r="AI12">
+        <v>10</v>
+      </c>
+      <c r="AJ12">
+        <v>10</v>
+      </c>
+      <c r="AK12">
+        <v>10</v>
+      </c>
+      <c r="AL12">
+        <v>10</v>
+      </c>
+      <c r="AM12">
+        <v>10</v>
+      </c>
+      <c r="AN12">
+        <v>10</v>
+      </c>
+      <c r="AO12">
+        <v>10</v>
+      </c>
+      <c r="AP12">
+        <v>10</v>
+      </c>
+      <c r="AQ12">
+        <v>10</v>
+      </c>
+      <c r="AR12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1541,31 +2468,31 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D13" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="F13" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="G13" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="H13" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="I13" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="J13" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="K13" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="L13" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="M13" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1574,22 +2501,95 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="O13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="P13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="R13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="S13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="T13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="U13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="V13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Y13" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Z13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AI13" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="R13" s="1">
+      <c r="AJ13" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="S13" s="1">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AK13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -1645,6 +2645,78 @@
         <v>148</v>
       </c>
       <c r="S14" t="s">
+        <v>148</v>
+      </c>
+      <c r="T14" t="s">
+        <v>148</v>
+      </c>
+      <c r="U14" t="s">
+        <v>148</v>
+      </c>
+      <c r="V14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR14" t="s">
         <v>148</v>
       </c>
     </row>
